--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/sk_SK.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/sk_SK.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5267">
   <si>
     <t>translation_group</t>
   </si>
@@ -15772,12 +15772,6 @@
   </si>
   <si>
     <t xml:space="preserve"> oznámenia</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54,000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -16164,17 +16158,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54821,18 +54815,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5251</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5252</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54842,10 +54828,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5253</v>
+        <v>5251</v>
       </c>
       <c r="D2763" t="s">
-        <v>5254</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54856,10 +54842,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="D2764" t="s">
-        <v>5256</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54870,10 +54856,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5257</v>
+        <v>5255</v>
       </c>
       <c r="D2765" t="s">
-        <v>5258</v>
+        <v>5256</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54884,10 +54870,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5259</v>
+        <v>5257</v>
       </c>
       <c r="D2766" t="s">
-        <v>5260</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54898,10 +54884,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5261</v>
+        <v>5259</v>
       </c>
       <c r="D2767" t="s">
-        <v>5262</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54912,10 +54898,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D2768" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54926,10 +54912,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="D2769" t="s">
-        <v>5266</v>
+        <v>5264</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54968,11 +54954,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5267</v>
+        <v>5265</v>
       </c>
       <c r="D2772" t="s">
-        <v>5268</v>
-      </c>
+        <v>5266</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/sk_SK.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/sk_SK.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5937">
   <si>
     <t>translation_group</t>
   </si>
@@ -10208,7 +10208,7 @@
     <t>Nastavenia SEO</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>Vyplňte polia, aby ste dosiahli maximum výsledkov pri vyhľadávaní svojich webových stránok vo vyhľadávačoch.</t>
@@ -17233,6 +17233,613 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Vitajte v aplikácii Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Použite Microweber na vytvorenie svojej webovej stránky, online obchodu alebo blogu.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Vytvárajte a upravujte obsah, predávajte online, spravujte objednávky a klientov.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Odstrániť</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>Opustený vozík</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Používate túto šablónu.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>Zmena sa dotkne iba aktuálnej stránky.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Povoliť viac šablón</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Ak povolíte viac šablón, pri vytváraní nových stránok budete môcť použiť rôzne šablóny.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>Systémové nastavenia e-mailovej webovej stránky</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Doručujte správy spojené s novou registráciou, resetovaním hesla a ďalšími funkciami systému.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>Z e-mailovej adresy</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Pr. Názov vašej webovej stránky</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Všeobecné nastavenia poskytovateľa e-mailu</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Nastavte si poskytovateľa e-mailu.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Všeobecný poskytovateľ e-mailu doručí všetky správy súvisiace s webovou stránkou. Vrátane systémových správ a správ kontaktného formulára.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Logo webových stránok</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Vyberte logo pre svoj web.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Nahrajte logo</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Webová stránka Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Zmena predvoleného jazyka ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Vymazať vyrovnávaciu pamäť..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Nainštalujte viacjazyčný modul</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Používatelia sa môžu zaregistrovať pomocou dočasných e-mailov, ako sú - Mailinator, MailDrop, Guerrilla ... s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Registrovaní používatelia môžu od vás automaticky dostávať automatický e-mail. Pozrite si nastavenia a zverejňujte svoje správy.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Zašlite e-mail s registráciou nového používateľa používateľom správ</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Chcete, aby správcovia dostali e-mail pri registrácii nového používateľa?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber je bezplatný open source nástroj na tvorbu webových stránok typu drag and drop a CMS. Je pod licenciou MIT a používame Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Doručenie na adresu</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Vyzdvihnutie z adresy</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Globálne nastavenia</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>E-mailová integrácia</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Nemáte nastavený systémový e-mail a SMTP.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Tu nastavte svoje systémové nastavenia.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Globálne nastavenie kontaktného formulára</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>Možnosti odosielania e-mailov</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Globálny odosielateľ</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Použite vlastné nastavenia odosielateľa</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Použite vlastné nastavenie odosielateľa pre globálne kontaktné formuláre.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>V predvolenom nastavení budeme používať nastavenia e-mailu systému webových stránok.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Tu môžete zmeniť nastavenie e-mailu systému.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Globálne prijímače</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Po odoslaní pošlite údaje kontaktných formulárov globálnym príjemcom</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>Na e-mailové adresy</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>E-mailová adresa príjemcov oddelených kómou.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Požiadajte svojho poskytovateľa hostingu o povolenie rozšírenia PHP SOAP.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Prvky</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>Pred 2 mesiacmi</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Odstrániť logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Odstrániť favicon</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Vlastné</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>ProduktyV2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Časová os</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Biely štítok WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Šablóna modulu sa zmenila</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Verzie obsahu</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Vymazať vyrovnávaciu pamäť</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Predvolené rozloženia a prvky</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Zoznam šípok</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Skontrolovaný zoznam</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Podkladový text</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Nadpis s textom</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Ikona s textom</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>Dva textové stĺpce</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Dva textové stĺpce s ikonou a nadpisom</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Obrázok s nadpisom a textom</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Text s obrázkom a nadpisom</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Povoliť komentáre</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Nastavenia Captcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nastavte svoje preferencie captcha z </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Aktuálne nastavenia kontaktného formulára</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Názov kontaktného formulára</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Aký je názov tohto kontaktného formulára?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Prijímače</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Po odoslaní pošlite údaje kontaktného formulára do vlastných prijímačov</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Použite vlastné nastavenia prijímačov pre aktuálny kontaktný formulár.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>Štandardne použijeme globálne nastavenie kontaktného formulára.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>Tu môžete zmeniť globálne nastavenie kontaktného formulára.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Automaticky odpovedať na správu pre používateľa</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Povoliť používateľovi správu s automatickou odpoveďou</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Umožnite používateľom dostávať správy s poďakovaním po prihlásení.</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Subjekt s automatickou odpoveďou</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Automatické odpovede vám umožňujú nastaviť automatické odpovede na prichádzajúce e-maily</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Automatická odpoveď na e-mail odoslaný späť používateľovi</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Automaticky odpovedať na vlastné odosielateľa</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Použite vlastné nastavenia odosielateľa pre aktuálny kontaktný formulár.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Automaticky odpovedať z e-mailovej adresy</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Automaticky odpovedať podľa mena</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Automaticky odpovedať na e-mail</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Keď používateľ dostane správu s automatickou odpoveďou, môže odpovedať späť na odpoveď na e-mail.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Automaticky odpovedať na prílohy e-mailov</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Zatiaľ nemáte žiadne príspevky</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Vytvorte svoj prvý príspevok práve teraz.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Vytvorte príspevok</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Ako písať popisy produktov, ktoré predávajú
+                                                    Jednou z najlepších vecí, ktoré môžete urobiť, aby bol váš obchod úspešný, je investovať nejaký čas do napísania skvelých popisov produktov. Chcete poskytnúť podrobné, ale stručné informácie, ktoré budú priťahovať potenciálnych zákazníkov k nákupu.
+                                                    Myslite ako spotrebiteľ
+                                                    Zamyslite sa nad tým, čo by ste ako spotrebiteľ chceli vedieť, a potom tieto funkcie zahrňte do svojho popisu. Na oblečenie: materiály a fit. Pre jedlo: prísady a spôsob prípravy. Odrážky sú vašimi priateľmi pri uvádzaní
+                                                   funkcií - skúste
+                                                            obmedziť každé z nich na 5 - 8 slov.</t>
   </si>
 </sst>
 </file>
@@ -17571,7 +18178,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67879,6 +68486,1757 @@
         <v>3640</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5739</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5740</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5741</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5742</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5743</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5745</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>5747</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5748</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5749</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5753</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5755</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5763</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5765</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5767</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5769</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5771</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5775</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5781</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5783</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5784</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>5785</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5786</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5787</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5791</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5793</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5794</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>647</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5796</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5798</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5799</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5800</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5801</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5802</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5803</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5804</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5805</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5806</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5807</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5808</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5809</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5810</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5811</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5812</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5813</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5814</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5815</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5816</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5817</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5818</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5819</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5820</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5821</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5822</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5823</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5824</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5825</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5826</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5827</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5828</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5829</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5830</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5831</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5832</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5833</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5834</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5835</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>5836</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5837</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5838</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5839</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5840</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5841</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5842</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5847</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5848</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3333</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5850</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>5851</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5852</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5853</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5854</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>5855</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5856</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5857</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5858</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5859</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5860</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5861</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5862</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5863</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5864</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5865</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5866</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5867</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5868</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5869</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5870</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5871</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5872</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5873</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5874</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5875</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5876</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>2330</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5877</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5878</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5879</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5880</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5881</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5882</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5883</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4971</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5884</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5885</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5886</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5887</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5888</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5889</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5890</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5891</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5892</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5893</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5894</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5895</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5898</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5899</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5902</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5903</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5904</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5905</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5906</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5907</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5908</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>5909</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5910</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>3132</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5920</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5924</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5926</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>4236</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5929</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5930</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5931</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5932</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5933</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5934</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5935</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/sk_SK.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/sk_SK.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6229">
   <si>
     <t>translation_group</t>
   </si>
@@ -17840,6 +17840,882 @@
                                                     Zamyslite sa nad tým, čo by ste ako spotrebiteľ chceli vedieť, a potom tieto funkcie zahrňte do svojho popisu. Na oblečenie: materiály a fit. Pre jedlo: prísady a spôsob prípravy. Odrážky sú vašimi priateľmi pri uvádzaní
                                                    funkcií - skúste
                                                             obmedziť každé z nich na 5 - 8 slov.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Jazyk správcu</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Editor kódu</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>titulov</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Tituly 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Tituly 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Tituly 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Tituly 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Tituly 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Titulky 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Tituly 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Titulky 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>textový blok</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Textový blok 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Textový blok 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Textový blok 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Textový blok 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Textový blok 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Textový blok 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Textový blok 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Textový blok 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Textový blok 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Textový blok 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Textový blok 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Textový blok 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Textový blok 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Textový blok 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Textový blok 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>Vlastnosti</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Vlastnosti 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Vlastnosti 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Vlastnosti 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Vlastnosti 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>mriežky</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>päty</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Päty 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Päty 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>päty 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Päty 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>iné</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>cenotvorby</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Ceny 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Predvolené rozloženia</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Nie je tu žiadny obsah</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Vlastné polia sa uložia</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Existujúce polia</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Vyberte si z existujúcich polí nižšie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pridajte nové polia</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Pridajte nové vlastné pole zo zoznamu nižšie</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Vaše polia</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Zoznam vašich pridaných vlastných polí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">opakujte vertikálne </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Rodina písiem</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Prekrytie</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Režim miešania</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Kontajner</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Typ kontajnera</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Animácie</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Opätovné načítanie štýlov</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Odkazy na</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Náhľad balíka</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Použite</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Aktuálne</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Zmeniť poradie</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>systém</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Presmerovanie prehliadača</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>integrácia</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Samostatný aktualizátor</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>Na inštaláciu tohto balíka potrebujete licenčný kľúč</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Tento balík je prémiový a na jeho inštaláciu musíte mať licenčný kľúč</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Potrebujete licenčný kľúč</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Licencia aktivovaná</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Opätovné načítanie stránky</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Licencia nie je aktivovaná</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Aktualizácie systému</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Skontrolujte aktualizácie systému</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Späť na zoznam</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>Kategória musí mať názov</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>Je kategória skrytá?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Ak toto nastavíte na ÁNO, táto kategória bude na webovej lokalite skrytá</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Spomínanie</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Vaša karta je prázdna.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Výsledky nájdené</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Ak si z výberového poľa vyberiete Percento, vypočíta sa automaticky z Ceny a Ponukovej ceny produktu.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>vyžaduje sa custom.multilanguage.title.en_US</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Pokračujte k pokladni</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>Zobrazovanie</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>výsledok(y)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Nadpis stránky - Pravá navigácia</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Názov stránky – strúhanka vľavo</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Podmienky používania</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Doručenie a vrátenie tovaru</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>Prepravné informácie</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>O 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>O 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>O 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>Domov 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>Domov 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>Ak chcete zmeniť šablónu, musíte kliknúť na tlačidlo použiť šablónu</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Hľadajte podľa kritérií</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Dátum od</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Nastavte objednávky od dátumu</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Dátum do</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Nastavte objednávky na dátum</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Suma objednávky od</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Ukážte objednávku s minimálnou sumou</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Suma objednávky do</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Ukážte objednávku s maximálnou sumou</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Hľadať podľa produktov...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Hľadajte podľa produktov</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Stav platby</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Bezplatné vyhľadávanie podľa telefónu, mena, e-mailu atď.</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Odošlite tieto kritériá</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Resetovať filter</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Exportovať všetko</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Vyberte triedenie</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Dátum objednávky</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Nové &gt; Staré]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Staré &gt; Nové]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Vysoká &gt; Nízka]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Nízka &gt; Vysoká]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>Objednávka dokončená</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>vo vašej databáze boli nájdené preklady z viacjazyčného modulu.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>POZOR! Zmena predvoleného jazyka môže narušiť preklady na vašom webe.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Naozaj chcete pokračovať?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>POZOR! Zmena predvoleného jazyka môže poškodiť vašu stránku.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Podrobnosti o doručení</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>Typ dopravy</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>objednávka ešte nie je dokončená</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>objednávka je dokončená</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Vytvorené o</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>Aktualizované o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rýchle zobrazenie </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Nahradiť jazykové hodnoty</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Preklady sa importujú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preklady sa nenašli v databáze. Chcete importovať preklady? </t>
   </si>
 </sst>
 </file>
@@ -17863,10 +18739,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17877,7 +18750,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18178,7 +19051,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70240,8 +71113,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5939</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5940</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5941</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5942</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5942</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5943</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5944</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5946</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5948</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5952</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5954</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5956</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5957</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5958</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5961</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5962</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5966</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5967</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5968</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5970</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5971</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5972</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5974</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5976</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5978</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5980</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5981</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5982</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5985</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5986</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5987</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5988</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5989</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5991</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5992</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>5994</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5996</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5998</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5999</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>6000</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>6001</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>6002</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>2219</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>6006</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>6007</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>6007</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>6008</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>6008</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>6009</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>6010</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>6010</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>6011</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>6012</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>6014</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>6015</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>6016</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>6017</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>6018</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>6019</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>6020</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>6021</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>6022</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>6023</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>6023</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>6024</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>6025</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>6026</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>6028</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>6029</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>6030</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>6032</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>6036</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>6039</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>6040</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>6041</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>6042</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>6043</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>6044</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>6046</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>6047</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>6048</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>6049</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>6050</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>6051</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>6052</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>6054</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>6055</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>6056</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>6058</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>6059</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>6060</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6061</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6062</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6063</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6064</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6065</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6066</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>6067</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6068</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6069</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6070</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6071</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6072</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6073</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6074</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6075</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6076</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6077</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6079</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6080</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6081</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6083</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6084</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6085</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6086</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6087</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6089</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6090</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6093</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6094</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6095</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6096</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6097</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6098</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6099</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6100</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6101</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6102</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6103</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6104</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6105</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6106</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6107</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6108</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6109</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6111</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5934</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6112</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6113</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6114</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6115</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6116</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6116</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6117</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6118</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6119</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6117</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6120</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6121</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6121</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6122</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6122</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6123</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6124</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6125</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6125</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6126</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6127</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6128</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>6129</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6130</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6131</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6132</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6133</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6134</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6135</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6136</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6137</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6138</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6139</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6140</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>6141</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6142</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6143</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6144</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6145</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6146</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6147</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6148</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6149</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6150</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6151</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6152</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6153</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6155</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6156</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6158</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6159</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6160</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6161</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6162</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6163</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6164</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6165</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6166</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6167</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6168</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6169</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6170</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6171</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6172</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6173</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6174</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6175</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6176</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6177</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6178</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6179</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6180</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6181</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6182</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6183</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6184</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6185</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6186</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6187</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6188</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6189</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6190</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6191</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6192</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6193</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6194</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6195</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6196</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6197</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6198</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6199</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6200</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6201</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6202</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6203</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6204</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6205</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6206</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6207</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6208</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6209</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6210</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6211</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>6212</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6213</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6214</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6215</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6216</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6217</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6218</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6219</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6220</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6221</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6222</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6223</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6224</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6225</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6226</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6227</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6228</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70253,5 +73760,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/sk_SK.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/sk_SK.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6041">
   <si>
     <t>translation_group</t>
   </si>
@@ -10211,7 +10211,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>Vyplňte polia, aby ste dosiahli maximum výsledkov pri vyhľadávaní svojich webových stránok vo vyhľadávačoch.</t>
+    <t>Vyplňte polia pre maximálne výsledky pri hľadaní vašej webovej stránky vo vyhľadávačoch.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17238,7 +17238,7 @@
     <t>Welcome to Microweber</t>
   </si>
   <si>
-    <t>Vitajte v aplikácii Microweber</t>
+    <t>Vitajte v Microweberi</t>
   </si>
   <si>
     <t>Use Microweber to build your website, online shop or blog.</t>
@@ -17274,19 +17274,19 @@
     <t>The change will affect only the current page.</t>
   </si>
   <si>
-    <t>Zmena sa dotkne iba aktuálnej stránky.</t>
+    <t>Zmena ovplyvní iba aktuálnu stránku.</t>
   </si>
   <si>
     <t>Allow multiple templates</t>
   </si>
   <si>
-    <t>Povoliť viac šablón</t>
+    <t>Povoliť viacero šablón</t>
   </si>
   <si>
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>Ak povolíte viac šablón, pri vytváraní nových stránok budete môcť použiť rôzne šablóny.</t>
+    <t>Ak povolíte viacero šablón, pri vytváraní nových stránok budete môcť použiť rôzne šablóny.</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
@@ -17298,7 +17298,7 @@
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Doručujte správy spojené s novou registráciou, resetovaním hesla a ďalšími funkciami systému.</t>
+    <t>Doručujte správy súvisiace s novou registráciou, resetovaním hesla a ďalšími funkciami systému.</t>
   </si>
   <si>
     <t>From e-mail address</t>
@@ -17310,7 +17310,7 @@
     <t>Ex. Your Website Name</t>
   </si>
   <si>
-    <t>Pr. Názov vašej webovej stránky</t>
+    <t>Napr. Názov vašej webovej stránky</t>
   </si>
   <si>
     <t>General e-mail provider settings</t>
@@ -17328,13 +17328,13 @@
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>Všeobecný poskytovateľ e-mailu doručí všetky správy súvisiace s webovou stránkou. Vrátane systémových správ a správ kontaktného formulára.</t>
+    <t>Všeobecný poskytovateľ e-mailu bude doručovať všetky správy súvisiace s webovou stránkou. Vrátane systémových správ a správ kontaktného formulára.</t>
   </si>
   <si>
     <t>Website Logo</t>
   </si>
   <si>
-    <t>Logo webových stránok</t>
+    <t>Logo webovej stránky</t>
   </si>
   <si>
     <t>Select an logo for your website.</t>
@@ -17352,13 +17352,13 @@
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>Webová stránka Favicon</t>
+    <t>Favicon webových stránok</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Zmena predvoleného jazyka ..</t>
+    <t>Zmena predvoleného jazyka..</t>
   </si>
   <si>
     <t>Clear cache..</t>
@@ -17376,19 +17376,19 @@
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
-    <t>Používatelia sa môžu zaregistrovať pomocou dočasných e-mailov, ako sú - Mailinator, MailDrop, Guerrilla ... s</t>
+    <t>Používatelia sa môžu zaregistrovať pomocou dočasných e-mailov ako - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Registrovaní používatelia môžu od vás automaticky dostávať automatický e-mail. Pozrite si nastavenia a zverejňujte svoje správy.</t>
+    <t>Registrovaní používatelia môžu od vás automaticky dostávať automatický e-mail. Pozrite si nastavenia a uverejnite svoje správy.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Zašlite e-mail s registráciou nového používateľa používateľom správ</t>
+    <t>Pošlite e-mail o registrácii nového používateľa administrátorom</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
@@ -17400,7 +17400,7 @@
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber je bezplatný open source nástroj na tvorbu webových stránok typu drag and drop a CMS. Je pod licenciou MIT a používame Laravel PHP framework</t>
+    <t>Microweber je bezplatný nástroj na tvorbu webových stránok a CMS s otvoreným zdrojom. Je pod licenciou MIT a používame framework Laravel PHP</t>
   </si>
   <si>
     <t>A Slider</t>
@@ -17427,25 +17427,25 @@
     <t>E-mail Integrations</t>
   </si>
   <si>
-    <t>E-mailová integrácia</t>
+    <t>E-mailové integrácie</t>
   </si>
   <si>
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>Nemáte nastavený systémový e-mail a SMTP.</t>
+    <t>Nemáte nastavený systémový e-mail a smtp.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
   </si>
   <si>
-    <t>Tu nastavte svoje systémové nastavenia.</t>
+    <t>Tu nastavte nastavenia systému.</t>
   </si>
   <si>
     <t>Global contact form settings</t>
   </si>
   <si>
-    <t>Globálne nastavenie kontaktného formulára</t>
+    <t>Globálne nastavenia kontaktného formulára</t>
   </si>
   <si>
     <t>E-mail sending options</t>
@@ -17469,19 +17469,19 @@
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>Použite vlastné nastavenie odosielateľa pre globálne kontaktné formuláre.</t>
+    <t>Použite vlastné nastavenia odosielateľa pre globálne kontaktné formuláre.</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>V predvolenom nastavení budeme používať nastavenia e-mailu systému webových stránok.</t>
+    <t>Štandardne použijeme systémové nastavenia e-mailu webovej stránky.</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
   </si>
   <si>
-    <t>Tu môžete zmeniť nastavenie e-mailu systému.</t>
+    <t>Tu môžete zmeniť systémové nastavenia e-mailu.</t>
   </si>
   <si>
     <t>Global Receivers</t>
@@ -17493,7 +17493,7 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Po odoslaní pošlite údaje kontaktných formulárov globálnym príjemcom</t>
+    <t>Po odoslaní odošlite údaje z kontaktných formulárov globálnym príjemcom</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
@@ -17505,13 +17505,13 @@
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>E-mailová adresa príjemcov oddelených kómou.</t>
+    <t>E-mailové adresy príjemcov oddelené kómou.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>Požiadajte svojho poskytovateľa hostingu o povolenie rozšírenia PHP SOAP.</t>
+    <t>Ak chcete povoliť rozšírenie PHP SOAP, kontaktujte svojho poskytovateľa hostingu.</t>
   </si>
   <si>
     <t>Elements</t>
@@ -17529,9 +17529,6 @@
     <t>Remove logo</t>
   </si>
   <si>
-    <t>Odstrániť logo</t>
-  </si>
-  <si>
     <t>Remove favicon</t>
   </si>
   <si>
@@ -17604,19 +17601,19 @@
     <t>Checked List</t>
   </si>
   <si>
-    <t>Skontrolovaný zoznam</t>
+    <t>Kontrolovaný zoznam</t>
   </si>
   <si>
     <t>Background Text</t>
   </si>
   <si>
-    <t>Podkladový text</t>
+    <t>Text na pozadí</t>
   </si>
   <si>
     <t>Title with Text</t>
   </si>
   <si>
-    <t>Nadpis s textom</t>
+    <t>Názov s textom</t>
   </si>
   <si>
     <t>Icon with Text</t>
@@ -17661,18 +17658,21 @@
     <t>Captcha settings</t>
   </si>
   <si>
-    <t>Nastavenia Captcha</t>
+    <t>Nastavenia captcha</t>
   </si>
   <si>
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">Nastavte svoje preferencie captcha z </t>
+    <t xml:space="preserve">Nastavte si predvoľby captcha z </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
+    <t>Pridať/upraviť polia formulára pomocou vlastných polí</t>
+  </si>
+  <si>
     <t>Current contact form settings</t>
   </si>
   <si>
@@ -17700,7 +17700,7 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Po odoslaní pošlite údaje kontaktného formulára do vlastných prijímačov</t>
+    <t>Po odoslaní odošlite údaje kontaktného formulára vlastným príjemcom</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
@@ -17712,37 +17712,37 @@
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>Štandardne použijeme globálne nastavenie kontaktného formulára.</t>
+    <t>Štandardne použijeme globálne nastavenia kontaktného formulára.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
   </si>
   <si>
-    <t>Tu môžete zmeniť globálne nastavenie kontaktného formulára.</t>
+    <t>Globálne nastavenia kontaktného formulára môžete zmeniť tu.</t>
   </si>
   <si>
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>Automaticky odpovedať na správu pre používateľa</t>
+    <t>Automatická odpoveď na správu používateľovi</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Povoliť používateľovi správu s automatickou odpoveďou</t>
+    <t>Povoliť automatickú odpoveď na správu používateľovi</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Umožnite používateľom dostávať správy s poďakovaním po prihlásení.</t>
+    <t>Povoliť používateľom dostávať e-maily s poďakovaním po prihlásení sa na odber.</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Subjekt s automatickou odpoveďou</t>
+    <t>Predmet automatickej odpovede</t>
   </si>
   <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
@@ -17754,6 +17754,9 @@
     <t>Auto respond message</t>
   </si>
   <si>
+    <t>Správa automatickej odpovede</t>
+  </si>
+  <si>
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
@@ -17763,7 +17766,7 @@
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>Automaticky odpovedať na vlastné odosielateľa</t>
+    <t>Automatická odpoveď vlastného odosielateľa</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
@@ -17775,36 +17778,36 @@
     <t>Auto respond from e-mail address</t>
   </si>
   <si>
-    <t>Automaticky odpovedať z e-mailovej adresy</t>
+    <t>Automatická odpoveď z e-mailovej adresy</t>
   </si>
   <si>
     <t>Auto respond from name</t>
   </si>
   <si>
-    <t>Automaticky odpovedať podľa mena</t>
+    <t>Automatická odpoveď z mena</t>
   </si>
   <si>
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>Automaticky odpovedať na e-mail</t>
-  </si>
-  <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Keď používateľ dostane správu s automatickou odpoveďou, môže odpovedať späť na odpoveď na e-mail.</t>
+    <t>Keď používateľ dostane správu s automatickou odpoveďou, môže odpovedať a odpovedať na e-mail.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Automaticky odpovedať na prílohy e-mailov</t>
+    <t>Automatická odpoveď na e-mailové prílohy</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
+    <t>Ak chcete pripojiť obrázky, musíte ich nahrať do galérie z 'Pridať médiá'</t>
+  </si>
+  <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
@@ -17814,7 +17817,7 @@
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>Vytvorte svoj prvý príspevok práve teraz.</t>
+    <t>Vytvorte svoj prvý príspevok hneď teraz.</t>
   </si>
   <si>
     <t>Create a Post</t>
@@ -17835,11 +17838,11 @@
   </si>
   <si>
     <t>Ako písať popisy produktov, ktoré predávajú
-                                                    Jednou z najlepších vecí, ktoré môžete urobiť, aby bol váš obchod úspešný, je investovať nejaký čas do napísania skvelých popisov produktov. Chcete poskytnúť podrobné, ale stručné informácie, ktoré budú priťahovať potenciálnych zákazníkov k nákupu.
+                                                    Jedna z najlepších vecí, ktoré môžete urobiť, aby bol váš obchod úspešný, je investovať nejaký čas do písania skvelých popisov produktov. Chcete poskytnúť podrobné, ale stručné informácie, ktoré prilákajú potenciálnych zákazníkov k nákupu.
                                                     Myslite ako spotrebiteľ
-                                                    Zamyslite sa nad tým, čo by ste ako spotrebiteľ chceli vedieť, a potom tieto funkcie zahrňte do svojho popisu. Na oblečenie: materiály a fit. Pre jedlo: prísady a spôsob prípravy. Odrážky sú vašimi priateľmi pri uvádzaní
-                                                   funkcií - skúste
-                                                            obmedziť každé z nich na 5 - 8 slov.</t>
+                                                    Zamyslite sa nad tým, čo by ste ako spotrebiteľ chceli vedieť, a potom tieto funkcie zahrňte do svojho popisu. Pre oblečenie: materiály a strih. Pre jedlo: prísady a spôsob prípravy. Odrážky sú vašimi priateľmi pri uvádzaní
+                                                   funkcií – skúste
+                                                            obmedziť každú z nich na 5 až 8 slov.</t>
   </si>
   <si>
     <t>Admin language</t>
@@ -17848,328 +17851,259 @@
     <t>Jazyk správcu</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Pridať podstránku</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Kategória bola odstránená</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Obsah bol odstránený</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Hľadať kategórie</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Vytvorte obsah</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>kard</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>akýkoľvek</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>Naozaj chcete odstrániť?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Späť k</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Vlastné polia sa uložia</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Existujúce polia</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Vyberte si z existujúcich polí nižšie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pridajte nové polia</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Pridajte nové vlastné pole zo zoznamu nižšie</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Vaše polia</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Zoznam vašich pridaných vlastných polí</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>skladom</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Systém</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Presmerovanie prehliadača</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>integrácia</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Samostatný aktualizátor</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Náhľad balíka</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Použite</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Aktuálne</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>expresné</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Prvá trieda</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Kliknite a zbierajte</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Video pozadia</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>Viacjazyčné</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Ak chcete používať viacero jazykov, môžete aktivovať viacjazyčný modul</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Viacjazyčný režim</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Aktivujte viacjazyčný režim, aby ste mali pre svoj obsah viacero jazykov.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Preklady sa importujú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preklady sa nenašli v databáze. Chcete importovať preklady? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Vaša karta je prázdna.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Editor kódu</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>titulov</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Tituly 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Tituly 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Tituly 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Tituly 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Tituly 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Titulky 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Tituly 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Titulky 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>textový blok</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Textový blok 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Textový blok 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Textový blok 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Textový blok 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Textový blok 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Textový blok 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Textový blok 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Textový blok 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Textový blok 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Textový blok 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Textový blok 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Textový blok 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Textový blok 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Textový blok 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Textový blok 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>Vlastnosti</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Vlastnosti 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Vlastnosti 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Vlastnosti 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Vlastnosti 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>mriežky</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>päty</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Päty 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Päty 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>päty 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Päty 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>iné</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>cenotvorby</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Ceny 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Predvolené rozloženia</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Nie je tu žiadny obsah</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Vlastné polia sa uložia</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Existujúce polia</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Vyberte si z existujúcich polí nižšie</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pridajte nové polia</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Pridajte nové vlastné pole zo zoznamu nižšie</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Vaše polia</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Zoznam vašich pridaných vlastných polí</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Nový import</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -18218,504 +18152,6 @@
   </si>
   <si>
     <t>Opätovné načítanie štýlov</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Odkazy na</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Náhľad balíka</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Použite</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Aktuálne</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Zmeniť poradie</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>systém</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Presmerovanie prehliadača</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>integrácia</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Samostatný aktualizátor</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Na inštaláciu tohto balíka potrebujete licenčný kľúč</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Tento balík je prémiový a na jeho inštaláciu musíte mať licenčný kľúč</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Potrebujete licenčný kľúč</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Licencia aktivovaná</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Opätovné načítanie stránky</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Licencia nie je aktivovaná</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Aktualizácie systému</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Skontrolujte aktualizácie systému</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Späť na zoznam</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Kategória musí mať názov</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Je kategória skrytá?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Ak toto nastavíte na ÁNO, táto kategória bude na webovej lokalite skrytá</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Spomínanie</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Vaša karta je prázdna.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Výsledky nájdené</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Ak si z výberového poľa vyberiete Percento, vypočíta sa automaticky z Ceny a Ponukovej ceny produktu.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>vyžaduje sa custom.multilanguage.title.en_US</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Pokračujte k pokladni</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Zobrazovanie</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>výsledok(y)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Nadpis stránky - Pravá navigácia</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Názov stránky – strúhanka vľavo</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Podmienky používania</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Doručenie a vrátenie tovaru</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>Prepravné informácie</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>O 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>O 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>O 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Domov 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Domov 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Ak chcete zmeniť šablónu, musíte kliknúť na tlačidlo použiť šablónu</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Hľadajte podľa kritérií</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Dátum od</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Nastavte objednávky od dátumu</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Dátum do</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Nastavte objednávky na dátum</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Suma objednávky od</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Ukážte objednávku s minimálnou sumou</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Suma objednávky do</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Ukážte objednávku s maximálnou sumou</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Hľadať podľa produktov...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Hľadajte podľa produktov</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Stav platby</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Bezplatné vyhľadávanie podľa telefónu, mena, e-mailu atď.</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Odošlite tieto kritériá</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Resetovať filter</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Exportovať všetko</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Vyberte triedenie</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Dátum objednávky</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Nové &gt; Staré]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Staré &gt; Nové]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Vysoká &gt; Nízka]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Nízka &gt; Vysoká]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>Objednávka dokončená</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>vo vašej databáze boli nájdené preklady z viacjazyčného modulu.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>POZOR! Zmena predvoleného jazyka môže narušiť preklady na vašom webe.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Naozaj chcete pokračovať?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>POZOR! Zmena predvoleného jazyka môže poškodiť vašu stránku.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Podrobnosti o doručení</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>Typ dopravy</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>objednávka ešte nie je dokončená</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>objednávka je dokončená</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Vytvorené o</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>Aktualizované o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rýchle zobrazenie </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Nahradiť jazykové hodnoty</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Preklady sa importujú</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preklady sa nenašli v databáze. Chcete importovať preklady? </t>
   </si>
 </sst>
 </file>
@@ -19051,7 +18487,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70206,7 +69642,7 @@
         <v>5835</v>
       </c>
       <c r="D3009" t="s">
-        <v>5836</v>
+        <v>3235</v>
       </c>
       <c r="E3009" t="s">
         <v>8</v>
@@ -70220,10 +69656,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
+        <v>5836</v>
+      </c>
+      <c r="D3010" t="s">
         <v>5837</v>
-      </c>
-      <c r="D3010" t="s">
-        <v>5838</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -70237,10 +69673,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
+        <v>5838</v>
+      </c>
+      <c r="D3011" t="s">
         <v>5839</v>
-      </c>
-      <c r="D3011" t="s">
-        <v>5840</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -70254,10 +69690,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5841</v>
+        <v>5840</v>
       </c>
       <c r="D3012" t="s">
-        <v>5841</v>
+        <v>5840</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -70271,10 +69707,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5842</v>
+        <v>5841</v>
       </c>
       <c r="D3013" t="s">
-        <v>5842</v>
+        <v>5841</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -70288,10 +69724,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
+        <v>5842</v>
+      </c>
+      <c r="D3014" t="s">
         <v>5843</v>
-      </c>
-      <c r="D3014" t="s">
-        <v>5844</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70305,10 +69741,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
+        <v>5844</v>
+      </c>
+      <c r="D3015" t="s">
         <v>5845</v>
-      </c>
-      <c r="D3015" t="s">
-        <v>5846</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70322,10 +69758,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
+        <v>5846</v>
+      </c>
+      <c r="D3016" t="s">
         <v>5847</v>
-      </c>
-      <c r="D3016" t="s">
-        <v>5848</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70339,7 +69775,7 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="D3017" t="s">
         <v>3333</v>
@@ -70356,10 +69792,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D3018" t="s">
         <v>5850</v>
-      </c>
-      <c r="D3018" t="s">
-        <v>5851</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70373,10 +69809,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
+        <v>5851</v>
+      </c>
+      <c r="D3019" t="s">
         <v>5852</v>
-      </c>
-      <c r="D3019" t="s">
-        <v>5853</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70390,10 +69826,10 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
+        <v>5853</v>
+      </c>
+      <c r="D3020" t="s">
         <v>5854</v>
-      </c>
-      <c r="D3020" t="s">
-        <v>5855</v>
       </c>
       <c r="E3020" t="s">
         <v>8</v>
@@ -70407,10 +69843,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D3021" t="s">
         <v>5856</v>
-      </c>
-      <c r="D3021" t="s">
-        <v>5857</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70424,10 +69860,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
+        <v>5857</v>
+      </c>
+      <c r="D3022" t="s">
         <v>5858</v>
-      </c>
-      <c r="D3022" t="s">
-        <v>5859</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70441,10 +69877,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D3023" t="s">
         <v>5860</v>
-      </c>
-      <c r="D3023" t="s">
-        <v>5861</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70458,10 +69894,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D3024" t="s">
         <v>5862</v>
-      </c>
-      <c r="D3024" t="s">
-        <v>5863</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70475,10 +69911,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3025" t="s">
         <v>5864</v>
-      </c>
-      <c r="D3025" t="s">
-        <v>5865</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70492,10 +69928,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
+        <v>5865</v>
+      </c>
+      <c r="D3026" t="s">
         <v>5866</v>
-      </c>
-      <c r="D3026" t="s">
-        <v>5867</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70509,10 +69945,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
+        <v>5867</v>
+      </c>
+      <c r="D3027" t="s">
         <v>5868</v>
-      </c>
-      <c r="D3027" t="s">
-        <v>5869</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70526,10 +69962,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
+        <v>5869</v>
+      </c>
+      <c r="D3028" t="s">
         <v>5870</v>
-      </c>
-      <c r="D3028" t="s">
-        <v>5871</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70543,10 +69979,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
+        <v>5871</v>
+      </c>
+      <c r="D3029" t="s">
         <v>5872</v>
-      </c>
-      <c r="D3029" t="s">
-        <v>5873</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70560,10 +69996,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
+        <v>5873</v>
+      </c>
+      <c r="D3030" t="s">
         <v>5874</v>
-      </c>
-      <c r="D3030" t="s">
-        <v>5875</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70577,7 +70013,7 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5876</v>
+        <v>5875</v>
       </c>
       <c r="D3031" t="s">
         <v>2330</v>
@@ -70594,10 +70030,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
+        <v>5876</v>
+      </c>
+      <c r="D3032" t="s">
         <v>5877</v>
-      </c>
-      <c r="D3032" t="s">
-        <v>5878</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70611,10 +70047,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
+        <v>5878</v>
+      </c>
+      <c r="D3033" t="s">
         <v>5879</v>
-      </c>
-      <c r="D3033" t="s">
-        <v>5880</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70628,10 +70064,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
+        <v>5880</v>
+      </c>
+      <c r="D3034" t="s">
         <v>5881</v>
-      </c>
-      <c r="D3034" t="s">
-        <v>5882</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70645,10 +70081,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
+        <v>5882</v>
+      </c>
+      <c r="D3035" t="s">
         <v>5883</v>
-      </c>
-      <c r="D3035" t="s">
-        <v>4971</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70886,7 +70322,7 @@
         <v>5910</v>
       </c>
       <c r="D3049" t="s">
-        <v>3132</v>
+        <v>5911</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70900,10 +70336,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5911</v>
+        <v>5912</v>
       </c>
       <c r="D3050" t="s">
-        <v>5912</v>
+        <v>5913</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70917,10 +70353,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5913</v>
+        <v>5914</v>
       </c>
       <c r="D3051" t="s">
-        <v>5914</v>
+        <v>5915</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70934,10 +70370,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5915</v>
+        <v>5916</v>
       </c>
       <c r="D3052" t="s">
-        <v>5916</v>
+        <v>5917</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70951,10 +70387,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5917</v>
+        <v>5918</v>
       </c>
       <c r="D3053" t="s">
-        <v>5918</v>
+        <v>5919</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70968,10 +70404,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5919</v>
+        <v>5920</v>
       </c>
       <c r="D3054" t="s">
-        <v>5920</v>
+        <v>5921</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70985,10 +70421,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5921</v>
+        <v>5922</v>
       </c>
       <c r="D3055" t="s">
-        <v>5922</v>
+        <v>4122</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -71039,7 +70475,7 @@
         <v>5927</v>
       </c>
       <c r="D3058" t="s">
-        <v>4236</v>
+        <v>5928</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -71053,10 +70489,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5928</v>
+        <v>5929</v>
       </c>
       <c r="D3059" t="s">
-        <v>5929</v>
+        <v>5930</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -71070,10 +70506,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5930</v>
+        <v>5931</v>
       </c>
       <c r="D3060" t="s">
-        <v>5931</v>
+        <v>5932</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -71087,10 +70523,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5932</v>
+        <v>5933</v>
       </c>
       <c r="D3061" t="s">
-        <v>5933</v>
+        <v>5934</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -71101,13 +70537,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5934</v>
+        <v>5935</v>
       </c>
       <c r="C3062" t="s">
-        <v>5935</v>
+        <v>5936</v>
       </c>
       <c r="D3062" t="s">
-        <v>5936</v>
+        <v>5937</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -71121,10 +70557,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5937</v>
+        <v>5938</v>
       </c>
       <c r="D3063" t="s">
-        <v>5938</v>
+        <v>5939</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -71138,10 +70574,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5939</v>
+        <v>5940</v>
       </c>
       <c r="D3064" t="s">
-        <v>5939</v>
+        <v>4266</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -71155,10 +70591,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5940</v>
+        <v>5941</v>
       </c>
       <c r="D3065" t="s">
-        <v>5941</v>
+        <v>5942</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -71172,10 +70608,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5942</v>
+        <v>5943</v>
       </c>
       <c r="D3066" t="s">
-        <v>5942</v>
+        <v>5944</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71189,10 +70625,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5943</v>
+        <v>5945</v>
       </c>
       <c r="D3067" t="s">
-        <v>5944</v>
+        <v>5946</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71206,10 +70642,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5945</v>
+        <v>5947</v>
       </c>
       <c r="D3068" t="s">
-        <v>5946</v>
+        <v>5948</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71223,10 +70659,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5947</v>
+        <v>5949</v>
       </c>
       <c r="D3069" t="s">
-        <v>5948</v>
+        <v>5950</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71240,10 +70676,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5949</v>
+        <v>5951</v>
       </c>
       <c r="D3070" t="s">
-        <v>5950</v>
+        <v>5952</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71257,10 +70693,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5951</v>
+        <v>5953</v>
       </c>
       <c r="D3071" t="s">
-        <v>5952</v>
+        <v>5954</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71274,10 +70710,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5953</v>
+        <v>5955</v>
       </c>
       <c r="D3072" t="s">
-        <v>5954</v>
+        <v>5955</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71291,7 +70727,7 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5955</v>
+        <v>5956</v>
       </c>
       <c r="D3073" t="s">
         <v>5956</v>
@@ -71311,7 +70747,7 @@
         <v>5957</v>
       </c>
       <c r="D3074" t="s">
-        <v>5958</v>
+        <v>5957</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71325,10 +70761,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
+        <v>5958</v>
+      </c>
+      <c r="D3075" t="s">
         <v>5959</v>
-      </c>
-      <c r="D3075" t="s">
-        <v>5960</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71342,10 +70778,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5961</v>
+        <v>5960</v>
       </c>
       <c r="D3076" t="s">
-        <v>5962</v>
+        <v>3514</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71359,10 +70795,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5963</v>
+        <v>5961</v>
       </c>
       <c r="D3077" t="s">
-        <v>5964</v>
+        <v>5962</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71376,10 +70812,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5965</v>
+        <v>5963</v>
       </c>
       <c r="D3078" t="s">
-        <v>5966</v>
+        <v>2144</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71393,10 +70829,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5967</v>
+        <v>5964</v>
       </c>
       <c r="D3079" t="s">
-        <v>5968</v>
+        <v>5965</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71410,10 +70846,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5969</v>
+        <v>5966</v>
       </c>
       <c r="D3080" t="s">
-        <v>5970</v>
+        <v>5967</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71427,10 +70863,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5971</v>
+        <v>5968</v>
       </c>
       <c r="D3081" t="s">
-        <v>5972</v>
+        <v>5969</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71444,10 +70880,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5973</v>
+        <v>5970</v>
       </c>
       <c r="D3082" t="s">
-        <v>5974</v>
+        <v>5971</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71461,10 +70897,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5975</v>
+        <v>5972</v>
       </c>
       <c r="D3083" t="s">
-        <v>5976</v>
+        <v>5973</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71478,10 +70914,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5977</v>
+        <v>5974</v>
       </c>
       <c r="D3084" t="s">
-        <v>5978</v>
+        <v>5975</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71495,10 +70931,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5979</v>
+        <v>5976</v>
       </c>
       <c r="D3085" t="s">
-        <v>5980</v>
+        <v>5977</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71512,10 +70948,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5981</v>
+        <v>5978</v>
       </c>
       <c r="D3086" t="s">
-        <v>5982</v>
+        <v>5979</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71529,10 +70965,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5983</v>
+        <v>5980</v>
       </c>
       <c r="D3087" t="s">
-        <v>5984</v>
+        <v>5981</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71546,10 +70982,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5985</v>
+        <v>5982</v>
       </c>
       <c r="D3088" t="s">
-        <v>5986</v>
+        <v>5982</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71563,10 +70999,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5987</v>
+        <v>5983</v>
       </c>
       <c r="D3089" t="s">
-        <v>5988</v>
+        <v>5984</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71580,10 +71016,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5989</v>
+        <v>5985</v>
       </c>
       <c r="D3090" t="s">
-        <v>5990</v>
+        <v>5986</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71597,10 +71033,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5991</v>
+        <v>5987</v>
       </c>
       <c r="D3091" t="s">
-        <v>5992</v>
+        <v>5987</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71614,10 +71050,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5993</v>
+        <v>5988</v>
       </c>
       <c r="D3092" t="s">
-        <v>5994</v>
+        <v>5989</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71631,10 +71067,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5995</v>
+        <v>5990</v>
       </c>
       <c r="D3093" t="s">
-        <v>5996</v>
+        <v>5991</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71648,10 +71084,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5997</v>
+        <v>5992</v>
       </c>
       <c r="D3094" t="s">
-        <v>5998</v>
+        <v>5992</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71665,10 +71101,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5999</v>
+        <v>5993</v>
       </c>
       <c r="D3095" t="s">
-        <v>6000</v>
+        <v>5994</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71682,10 +71118,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>6001</v>
+        <v>5995</v>
       </c>
       <c r="D3096" t="s">
-        <v>6002</v>
+        <v>5996</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71699,10 +71135,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>6003</v>
+        <v>5997</v>
       </c>
       <c r="D3097" t="s">
-        <v>6004</v>
+        <v>5998</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71716,10 +71152,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>6005</v>
+        <v>5999</v>
       </c>
       <c r="D3098" t="s">
-        <v>2219</v>
+        <v>6000</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71733,10 +71169,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>6006</v>
+        <v>6001</v>
       </c>
       <c r="D3099" t="s">
-        <v>6006</v>
+        <v>6002</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71750,10 +71186,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>6007</v>
+        <v>6003</v>
       </c>
       <c r="D3100" t="s">
-        <v>6007</v>
+        <v>6004</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71767,10 +71203,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>6008</v>
+        <v>6005</v>
       </c>
       <c r="D3101" t="s">
-        <v>6008</v>
+        <v>6006</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71784,10 +71220,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>6009</v>
+        <v>6007</v>
       </c>
       <c r="D3102" t="s">
-        <v>6009</v>
+        <v>6008</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71801,7 +71237,7 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>6010</v>
+        <v>6009</v>
       </c>
       <c r="D3103" t="s">
         <v>6010</v>
@@ -71902,11 +71338,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>6021</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>6022</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71919,11 +71355,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>6021</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>6022</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71940,7 +71376,7 @@
         <v>6023</v>
       </c>
       <c r="D3111" t="s">
-        <v>6023</v>
+        <v>6024</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71954,10 +71390,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>6024</v>
+        <v>6025</v>
       </c>
       <c r="D3112" t="s">
-        <v>6024</v>
+        <v>6026</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71971,10 +71407,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>6025</v>
+        <v>6027</v>
       </c>
       <c r="D3113" t="s">
-        <v>6026</v>
+        <v>6028</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71988,10 +71424,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>6027</v>
+        <v>6029</v>
       </c>
       <c r="D3114" t="s">
-        <v>6028</v>
+        <v>6030</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -72005,10 +71441,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>6029</v>
+        <v>6031</v>
       </c>
       <c r="D3115" t="s">
-        <v>6030</v>
+        <v>6032</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -72022,10 +71458,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>6031</v>
+        <v>6033</v>
       </c>
       <c r="D3116" t="s">
-        <v>6032</v>
+        <v>6034</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -72039,10 +71475,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>6033</v>
+        <v>6035</v>
       </c>
       <c r="D3117" t="s">
-        <v>6034</v>
+        <v>6036</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -72056,10 +71492,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>6035</v>
+        <v>6037</v>
       </c>
       <c r="D3118" t="s">
-        <v>6036</v>
+        <v>6038</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -72073,1678 +71509,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>6037</v>
+        <v>6039</v>
       </c>
       <c r="D3119" t="s">
-        <v>6038</v>
+        <v>6040</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>6039</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>6040</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>6041</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>6042</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>6043</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>6044</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>6045</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>6046</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>6047</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>6048</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>6049</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6050</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6051</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>6052</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6053</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6054</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6055</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6056</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6057</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6058</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6059</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6060</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6061</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6062</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6063</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6064</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6065</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6066</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6067</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6068</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6069</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6070</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6071</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6072</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6073</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6074</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6075</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6076</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6077</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6078</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6079</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6081</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6083</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6087</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6089</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6093</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6094</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>2725</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6095</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6096</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6097</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6098</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6099</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6100</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6101</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6102</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6103</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6104</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6105</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6106</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6107</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6108</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6109</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6111</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5934</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6112</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6113</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6114</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6115</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6116</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6116</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6117</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6118</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6119</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6117</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6120</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6120</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6121</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6121</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6122</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6122</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6123</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6124</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6125</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6125</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6126</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6127</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6128</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6129</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6130</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6131</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6132</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6133</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6134</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6135</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6136</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6137</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6138</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6139</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>6141</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6142</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6143</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6144</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6145</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6146</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6147</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6148</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6149</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6150</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6151</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6152</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6153</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6154</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6155</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6156</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1815</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6157</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6158</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6159</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6160</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6161</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6162</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6163</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6164</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6165</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6166</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6167</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6168</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6169</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6170</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6171</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6172</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6173</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6174</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6175</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6176</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6177</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6178</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6179</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6180</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6181</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6182</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6183</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6184</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6185</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6186</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6187</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6188</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6189</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6190</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6191</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6192</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6193</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6194</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6195</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6196</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6197</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6198</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6199</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6200</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6201</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6202</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6203</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6204</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6205</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6206</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6207</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6208</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6209</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6210</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6211</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>6212</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6213</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6214</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6215</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6216</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6217</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6218</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6219</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6220</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6221</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6222</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6223</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6224</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6225</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6226</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6227</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6228</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
